--- a/data/trans_orig/P79_n_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79_n_R3-Habitat-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7335</v>
+        <v>7874</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002883068795168356</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01061880214326552</v>
+        <v>0.01140031998597614</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2856</v>
+        <v>3181</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0009536877799461875</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.003889712901051895</v>
+        <v>0.004333027041779725</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>2692</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8244</v>
+        <v>8139</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.001888947698115222</v>
+        <v>0.001888947698115223</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0004940422850413406</v>
+        <v>0.0005022225611892791</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005785546862913614</v>
+        <v>0.005712308276072741</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>24129</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15925</v>
+        <v>15451</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37352</v>
+        <v>36406</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03493365690935434</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02305592427099578</v>
+        <v>0.02236935580300257</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05407733005567277</v>
+        <v>0.05270746993584218</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -833,19 +833,19 @@
         <v>21632</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15219</v>
+        <v>14130</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32932</v>
+        <v>33073</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.0294640566847308</v>
+        <v>0.02946405668473081</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02072895147476299</v>
+        <v>0.01924641228610307</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04485515872099153</v>
+        <v>0.04504788226527473</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>51</v>
@@ -854,19 +854,19 @@
         <v>45761</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33596</v>
+        <v>34683</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>59949</v>
+        <v>61034</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03211542404977648</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02357766755417686</v>
+        <v>0.02434072257820603</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04207275655715081</v>
+        <v>0.04283400024288499</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>35364</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25597</v>
+        <v>25770</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>49011</v>
+        <v>48218</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0511999287235947</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03705962771099752</v>
+        <v>0.03730885177586538</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07095706557962664</v>
+        <v>0.06980999594055091</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>86</v>
@@ -904,19 +904,19 @@
         <v>60062</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>48156</v>
+        <v>47608</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>74311</v>
+        <v>72442</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08180777862647926</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06559163113033828</v>
+        <v>0.06484470201481167</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1012167582289384</v>
+        <v>0.09867069724784708</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>122</v>
@@ -925,19 +925,19 @@
         <v>95426</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>79509</v>
+        <v>79958</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>114734</v>
+        <v>113394</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06697074282605932</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05579984560029212</v>
+        <v>0.05611535971517607</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0805216877176133</v>
+        <v>0.07958128639403733</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>629225</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>609828</v>
+        <v>612533</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>642421</v>
+        <v>641958</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9109833455718827</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8829007220519103</v>
+        <v>0.886816023175005</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9300882058629159</v>
+        <v>0.9294181600973188</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1126</v>
@@ -975,19 +975,19 @@
         <v>651786</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>634440</v>
+        <v>636618</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>665567</v>
+        <v>665654</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8877744769088437</v>
+        <v>0.8877744769088436</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8641483282211394</v>
+        <v>0.8671145193506432</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9065447739739271</v>
+        <v>0.906663543657112</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1795</v>
@@ -996,19 +996,19 @@
         <v>1281011</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1256239</v>
+        <v>1258392</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1301004</v>
+        <v>1300974</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8990248854260492</v>
+        <v>0.899024885426049</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8816399794497097</v>
+        <v>0.8831508280932074</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9130564485446275</v>
+        <v>0.9130352301589628</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>6618</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2138</v>
+        <v>1607</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18453</v>
+        <v>19914</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.00630974794769134</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002038165754756949</v>
+        <v>0.001532418287343094</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01759213449525775</v>
+        <v>0.01898513828112853</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -1121,19 +1121,19 @@
         <v>8851</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4928</v>
+        <v>4242</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16655</v>
+        <v>15331</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.008260510733218363</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004599240194607192</v>
+        <v>0.003959367531425454</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01554444021631862</v>
+        <v>0.01430827915026691</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -1142,19 +1142,19 @@
         <v>15469</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8443</v>
+        <v>8756</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>25974</v>
+        <v>27944</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.00729550564714559</v>
+        <v>0.007295505647145591</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.003981768922080362</v>
+        <v>0.00412939621325767</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01224974892100118</v>
+        <v>0.01317853752021298</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>34638</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23869</v>
+        <v>24602</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48327</v>
+        <v>48781</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03302241584205759</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.022755859102199</v>
+        <v>0.02345423123237307</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04607341719931643</v>
+        <v>0.04650600555618327</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -1192,19 +1192,19 @@
         <v>39948</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30638</v>
+        <v>29646</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55629</v>
+        <v>55251</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03728345045705549</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02859447899905125</v>
+        <v>0.02766866345452237</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05191791079766691</v>
+        <v>0.051565839614273</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>87</v>
@@ -1213,19 +1213,19 @@
         <v>74586</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59794</v>
+        <v>59264</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>95660</v>
+        <v>92552</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03517559802829685</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02819969989694212</v>
+        <v>0.02794977081570358</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04511413441245837</v>
+        <v>0.04364861217454998</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>93187</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>74214</v>
+        <v>75456</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>115247</v>
+        <v>116605</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08884156920928347</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07075323693331581</v>
+        <v>0.07193721975991679</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1098727236616151</v>
+        <v>0.1111671490651085</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>125</v>
@@ -1263,19 +1263,19 @@
         <v>97047</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>80763</v>
+        <v>81485</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>114519</v>
+        <v>114045</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.09057358437989534</v>
+        <v>0.09057358437989535</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07537582713603184</v>
+        <v>0.07604934431885857</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1068796392980402</v>
+        <v>0.1064371258336178</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>208</v>
@@ -1284,19 +1284,19 @@
         <v>190235</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>166003</v>
+        <v>164113</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>220043</v>
+        <v>217645</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08971678956035292</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0782889535277168</v>
+        <v>0.07739744427515119</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1037746732014526</v>
+        <v>0.1026436860983778</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>914473</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>888343</v>
+        <v>890192</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>936440</v>
+        <v>937632</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8718262670009677</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8469147551219059</v>
+        <v>0.8486771918890799</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8927682079001065</v>
+        <v>0.893904606845381</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1327</v>
@@ -1334,19 +1334,19 @@
         <v>925628</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>903775</v>
+        <v>904266</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>946029</v>
+        <v>944051</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8638824544298308</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8434878518876764</v>
+        <v>0.8439456351732647</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8829225846666231</v>
+        <v>0.8810771343065416</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2171</v>
@@ -1355,19 +1355,19 @@
         <v>1840101</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1801714</v>
+        <v>1808456</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1869505</v>
+        <v>1871281</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8678121067642045</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8497081775962607</v>
+        <v>0.8528881685876202</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8816794105839181</v>
+        <v>0.8825170917294733</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>5583</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1740</v>
+        <v>1507</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14772</v>
+        <v>13159</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006951532263456075</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002166224701407958</v>
+        <v>0.001876137377519116</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01839487552552807</v>
+        <v>0.01638597019823793</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1480,19 +1480,19 @@
         <v>6455</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2283</v>
+        <v>2249</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17047</v>
+        <v>18070</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007947580327527203</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002811277036491674</v>
+        <v>0.002768334530426617</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02098675533456213</v>
+        <v>0.02224636657032952</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1501,19 +1501,19 @@
         <v>12038</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5505</v>
+        <v>5824</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22862</v>
+        <v>25809</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007452388342674959</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003407765976621495</v>
+        <v>0.003605356613402027</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01415318556344223</v>
+        <v>0.01597763718663358</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>24186</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15373</v>
+        <v>15124</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>38442</v>
+        <v>38902</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03011669794779761</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01914215476007442</v>
+        <v>0.01883294058319493</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04786915364423724</v>
+        <v>0.04844173686433378</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>29</v>
@@ -1551,19 +1551,19 @@
         <v>25317</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>16921</v>
+        <v>17368</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>36094</v>
+        <v>37759</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03116880023222419</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02083245776181055</v>
+        <v>0.02138266113767728</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04443614946236216</v>
+        <v>0.04648684110865588</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>50</v>
@@ -1572,19 +1572,19 @@
         <v>49503</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>36171</v>
+        <v>37287</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>66518</v>
+        <v>67846</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03064574051524293</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02239233630325493</v>
+        <v>0.0230833144849231</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04117887778387577</v>
+        <v>0.04200097433860318</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>72096</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54042</v>
+        <v>53796</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94827</v>
+        <v>94110</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08977547323957535</v>
+        <v>0.08977547323957537</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06729436278085649</v>
+        <v>0.06698807703391672</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.118080230407014</v>
+        <v>0.1171877996433039</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -1622,19 +1622,19 @@
         <v>56637</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44269</v>
+        <v>43591</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71109</v>
+        <v>73280</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06972773389349145</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05450141136159759</v>
+        <v>0.05366685841747351</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08754509273147254</v>
+        <v>0.09021737435389476</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>128</v>
@@ -1643,19 +1643,19 @@
         <v>128733</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>106919</v>
+        <v>106895</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>156168</v>
+        <v>155035</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07969460215686754</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06619032666569884</v>
+        <v>0.06617553788985643</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09667881746767772</v>
+        <v>0.09597725274681046</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>701208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>677587</v>
+        <v>674826</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>722242</v>
+        <v>723363</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.873156296549171</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8437425556643273</v>
+        <v>0.8403042448841215</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8993474276659594</v>
+        <v>0.9007442336504474</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>943</v>
@@ -1693,19 +1693,19 @@
         <v>723849</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>704943</v>
+        <v>704390</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>739830</v>
+        <v>739803</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8911558855467571</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8678791996518218</v>
+        <v>0.8671986245371389</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9108303920322999</v>
+        <v>0.9107967299992286</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1535</v>
@@ -1714,19 +1714,19 @@
         <v>1425058</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1395620</v>
+        <v>1393955</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1449265</v>
+        <v>1452122</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8822072689852146</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8639836159959877</v>
+        <v>0.8629525436481922</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8971932978451718</v>
+        <v>0.8989621982034329</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>9338</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4350</v>
+        <v>4169</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18559</v>
+        <v>17035</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00943139831246349</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004393877183936897</v>
+        <v>0.004211165710637431</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01874538984553514</v>
+        <v>0.01720552616715672</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1839,19 +1839,19 @@
         <v>5379</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2194</v>
+        <v>2218</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9940</v>
+        <v>9751</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004807039760730399</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001960957633312754</v>
+        <v>0.001982362667157506</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.008882873449979329</v>
+        <v>0.008713954840623019</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -1860,19 +1860,19 @@
         <v>14717</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8343</v>
+        <v>8764</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23655</v>
+        <v>23226</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.006977821081026442</v>
+        <v>0.006977821081026443</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003955936730729372</v>
+        <v>0.004155302254339385</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01121571636401205</v>
+        <v>0.01101208266102868</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>40200</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28790</v>
+        <v>28757</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>54358</v>
+        <v>54485</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0406037457177329</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02907878044003276</v>
+        <v>0.02904593552782874</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05490329508149531</v>
+        <v>0.05503229302256828</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>53</v>
@@ -1910,19 +1910,19 @@
         <v>42911</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>32640</v>
+        <v>32689</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>56081</v>
+        <v>56611</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03834590123331617</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02916794751258501</v>
+        <v>0.02921143000756028</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05011518813531993</v>
+        <v>0.05058853281134305</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>94</v>
@@ -1931,19 +1931,19 @@
         <v>83111</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>66249</v>
+        <v>66266</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>102515</v>
+        <v>101236</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.03940578588025136</v>
+        <v>0.03940578588025135</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03141104247204958</v>
+        <v>0.03141913007196363</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04860594658315182</v>
+        <v>0.04799931130982615</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>133857</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>111246</v>
+        <v>112564</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>159098</v>
+        <v>160280</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.13520058449637</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1123631387961604</v>
+        <v>0.1136936637541337</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1606951585807135</v>
+        <v>0.1618890446307213</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>196</v>
@@ -1981,19 +1981,19 @@
         <v>153896</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>132502</v>
+        <v>132911</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>177347</v>
+        <v>176618</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.137525158586766</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1184066469840103</v>
+        <v>0.118772635769391</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1584809033610152</v>
+        <v>0.1578294689503071</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>322</v>
@@ -2002,19 +2002,19 @@
         <v>287753</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>253230</v>
+        <v>253838</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>320443</v>
+        <v>321477</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1364339495127671</v>
+        <v>0.136433949512767</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1200652397997458</v>
+        <v>0.1203534409679858</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1519333003848703</v>
+        <v>0.1524232702784974</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>806667</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>776167</v>
+        <v>779238</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>832004</v>
+        <v>830680</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8147642714734336</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7839583556232922</v>
+        <v>0.7870601587740493</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8403557378344689</v>
+        <v>0.8390177618432147</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1305</v>
@@ -2052,19 +2052,19 @@
         <v>916855</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>892387</v>
+        <v>891592</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>942650</v>
+        <v>939565</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8193219004191874</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7974571991143267</v>
+        <v>0.796746132461565</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8423727930161031</v>
+        <v>0.8396161164535157</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2135</v>
@@ -2073,19 +2073,19 @@
         <v>1723523</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1686410</v>
+        <v>1687047</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1760258</v>
+        <v>1758532</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8171824435259551</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7995860149768778</v>
+        <v>0.7998881653620623</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8346001316405185</v>
+        <v>0.8337816293366805</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>23530</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14658</v>
+        <v>14081</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>37555</v>
+        <v>38459</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.006660518182240778</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004149040242651668</v>
+        <v>0.003985711436498964</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01063038885979341</v>
+        <v>0.01088633162236314</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>26</v>
@@ -2198,19 +2198,19 @@
         <v>21386</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13451</v>
+        <v>13163</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32425</v>
+        <v>33885</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.0057228078486556</v>
+        <v>0.005722807848655599</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.003599539113081227</v>
+        <v>0.003522360778612672</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.008676955169949358</v>
+        <v>0.009067558785440312</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>45</v>
@@ -2219,19 +2219,19 @@
         <v>44916</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>32541</v>
+        <v>32208</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>61935</v>
+        <v>61529</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.006178493781036172</v>
+        <v>0.00617849378103617</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004476296122449319</v>
+        <v>0.004430390052723581</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.008519638800554811</v>
+        <v>0.008463762493278525</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>123153</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>99756</v>
+        <v>100963</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>147320</v>
+        <v>146374</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03486024065306785</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02823735785709536</v>
+        <v>0.02857895346940222</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04170110434498166</v>
+        <v>0.04143321767823199</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>164</v>
@@ -2269,19 +2269,19 @@
         <v>129808</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>111539</v>
+        <v>110926</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>153197</v>
+        <v>153005</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03473629793426952</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02984755455384609</v>
+        <v>0.02968340431233357</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04099511900100573</v>
+        <v>0.04094375220595912</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>282</v>
@@ -2290,19 +2290,19 @@
         <v>252961</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>221562</v>
+        <v>224210</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>285970</v>
+        <v>286304</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03479652863809621</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03047738934847743</v>
+        <v>0.0308417079322176</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03933710177795498</v>
+        <v>0.0393831602559456</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>334505</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>298148</v>
+        <v>296033</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>371702</v>
+        <v>376835</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0946865321925766</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08439514600822193</v>
+        <v>0.08379642100480071</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1052157047970723</v>
+        <v>0.1066686600169214</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>476</v>
@@ -2340,19 +2340,19 @@
         <v>367642</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>335944</v>
+        <v>335322</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>401485</v>
+        <v>401739</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.09838017075998243</v>
+        <v>0.09838017075998244</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08989775797883043</v>
+        <v>0.08973131119215022</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.107436419379323</v>
+        <v>0.1075044019730578</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>780</v>
@@ -2361,19 +2361,19 @@
         <v>702147</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>653866</v>
+        <v>649650</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>755174</v>
+        <v>754256</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.09658522505640894</v>
+        <v>0.09658522505640893</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.089943782233706</v>
+        <v>0.08936385047814015</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1038793679794209</v>
+        <v>0.1037531470884839</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>3051574</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3000943</v>
+        <v>3003871</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3091016</v>
+        <v>3095619</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8637927089721148</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8494607264950373</v>
+        <v>0.8502896518243723</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8749573781810883</v>
+        <v>0.8762603940234918</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4701</v>
@@ -2411,19 +2411,19 @@
         <v>3218118</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3178670</v>
+        <v>3177838</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3256422</v>
+        <v>3255782</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.8611607234570927</v>
+        <v>0.8611607234570924</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8506045850784183</v>
+        <v>0.8503820088130442</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8714106987842486</v>
+        <v>0.8712394101696878</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>7636</v>
@@ -2432,19 +2432,19 @@
         <v>6269692</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6208705</v>
+        <v>6210718</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6326355</v>
+        <v>6338241</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.8624397525244587</v>
+        <v>0.8624397525244586</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8540505392360148</v>
+        <v>0.8543275252481485</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8702341883990934</v>
+        <v>0.8718690847350031</v>
       </c>
     </row>
     <row r="28">
